--- a/Spécialisation/gr01_carpentierlariviverec_estime.xlsx
+++ b/Spécialisation/gr01_carpentierlariviverec_estime.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="29640" yWindow="1220" windowWidth="20960" windowHeight="24860" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30640" windowHeight="19560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="SPEC" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>Formation / Cours </t>
   </si>
@@ -72,9 +72,6 @@
     <t>Estimé des heures de travail - Projet SPEC</t>
   </si>
   <si>
-    <t>semaine 0</t>
-  </si>
-  <si>
     <t>Intégration, prototypage et programmation </t>
   </si>
   <si>
@@ -145,6 +142,15 @@
   </si>
   <si>
     <t>• Ajout de fonctionnalités</t>
+  </si>
+  <si>
+    <t>semaine 5</t>
+  </si>
+  <si>
+    <t>semaine 6</t>
+  </si>
+  <si>
+    <t>semaine 8</t>
   </si>
 </sst>
 </file>
@@ -822,7 +828,7 @@
   <dimension ref="A2:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -846,10 +852,10 @@
     <row r="4" spans="1:6" s="11" customFormat="1" ht="26" customHeight="1">
       <c r="A4" s="8"/>
       <c r="B4" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="25" t="s">
         <v>14</v>
@@ -917,72 +923,72 @@
         <v>1</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="21"/>
     </row>
     <row r="11" spans="1:6" ht="18">
       <c r="B11" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="31">
         <v>1</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="21"/>
     </row>
     <row r="12" spans="1:6" ht="18">
       <c r="B12" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="31">
         <v>1</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="21"/>
     </row>
     <row r="13" spans="1:6" ht="18">
       <c r="B13" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="31">
         <v>2</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="21"/>
     </row>
     <row r="14" spans="1:6" ht="18">
       <c r="B14" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="31">
         <v>4</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="21"/>
     </row>
     <row r="15" spans="1:6" ht="18">
       <c r="B15" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="31">
         <v>1</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="21"/>
@@ -1012,52 +1018,52 @@
     </row>
     <row r="18" spans="2:6" ht="18">
       <c r="B18" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="31">
         <v>2</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="21"/>
     </row>
     <row r="19" spans="2:6" ht="18">
       <c r="B19" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="31">
         <v>3</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="21"/>
     </row>
     <row r="20" spans="2:6" ht="18">
       <c r="B20" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="31">
         <v>3</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="21"/>
     </row>
     <row r="21" spans="2:6" ht="18">
       <c r="B21" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" s="31">
         <v>2</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="21"/>
@@ -1071,7 +1077,7 @@
     </row>
     <row r="23" spans="2:6" ht="18">
       <c r="B23" s="27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" s="28">
         <f>SUM(C24:C28)</f>
@@ -1087,65 +1093,65 @@
     </row>
     <row r="24" spans="2:6" ht="18">
       <c r="B24" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24" s="31">
         <v>15</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="21"/>
     </row>
     <row r="25" spans="2:6" ht="18">
       <c r="B25" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C25" s="31">
         <v>27</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="21"/>
     </row>
     <row r="26" spans="2:6" ht="18">
       <c r="B26" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26" s="31">
         <v>2</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="21"/>
     </row>
     <row r="27" spans="2:6" ht="18">
       <c r="B27" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" s="30">
         <v>1</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="21"/>
     </row>
     <row r="28" spans="2:6" ht="18">
       <c r="B28" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C28" s="30">
         <v>15</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="21"/>
@@ -1181,7 +1187,7 @@
         <v>5</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E31" s="13"/>
       <c r="F31" s="21"/>
@@ -1194,7 +1200,7 @@
         <v>3</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E32" s="13"/>
       <c r="F32" s="21"/>
@@ -1207,20 +1213,20 @@
         <v>2</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E33" s="13"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="18">
       <c r="B34" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C34" s="30">
         <v>3</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E34" s="13"/>
       <c r="F34" s="21"/>
@@ -1233,7 +1239,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E35" s="13"/>
       <c r="F35" s="21"/>
